--- a/database/excel_database/ItemInfo.xlsx
+++ b/database/excel_database/ItemInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9275"/>
+    <workbookView windowWidth="21000" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Weapon</t>
+  </si>
+  <si>
+    <t>初始之刃</t>
+  </si>
+  <si>
+    <t>使用坚固的石头打造出来的刀刃,看起来挺贵的。</t>
   </si>
 </sst>
 </file>
@@ -118,10 +124,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,19 +139,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,60 +159,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,15 +172,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +226,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -258,6 +241,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -267,7 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,7 +274,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,19 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,163 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +498,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,24 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,153 +565,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,10 +734,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1091,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1263,10 +1262,43 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1004</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
